--- a/MyFramework_1/TestData/TD/TD_GC.xlsx
+++ b/MyFramework_1/TestData/TD/TD_GC.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\Git_Buckt1\MyFramework_1\TestData\TD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\selBasic\TestData\TD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6A3268-A63C-4CBF-BC8A-ED7EE35A33C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72E78EF-20D7-40C0-AD7B-D8FAA078DD50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1_bkp" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -104,6 +104,75 @@
   </si>
   <si>
     <t>File Name</t>
+  </si>
+  <si>
+    <t>11/04/2020</t>
+  </si>
+  <si>
+    <t>06391F</t>
+  </si>
+  <si>
+    <t>Nagaraja Kumarasamy</t>
+  </si>
+  <si>
+    <t>5035, Rambiling Hills Drive</t>
+  </si>
+  <si>
+    <t>Morisville, NC, 27560</t>
+  </si>
+  <si>
+    <t>nagaraja.kumarasamy@ibm.com</t>
+  </si>
+  <si>
+    <t>9842929902</t>
+  </si>
+  <si>
+    <t>Ananth</t>
+  </si>
+  <si>
+    <t>asethuraman@ibm.com</t>
+  </si>
+  <si>
+    <t>Apple Magic Key Board</t>
+  </si>
+  <si>
+    <t>Apple USB C Charger cable</t>
+  </si>
+  <si>
+    <t>Branch - Office Supplies Requisiton Template.xlsx</t>
+  </si>
+  <si>
+    <t>Prem</t>
+  </si>
+  <si>
+    <t>Branch - Office Supplies Requisiton Template1.xlsx</t>
+  </si>
+  <si>
+    <t>Asif Mohammed</t>
+  </si>
+  <si>
+    <t>Branch - Office Supplies Requisiton Template2.xlsx</t>
+  </si>
+  <si>
+    <t>Vino</t>
+  </si>
+  <si>
+    <t>Branch - Office Supplies Requisiton Template3.xlsx</t>
+  </si>
+  <si>
+    <t>11/05/2020 20:10:43</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>ZIP</t>
   </si>
 </sst>
 </file>
@@ -185,10 +254,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,9 +573,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213F3DC-B182-452E-AF46-9D4704FF2230}">
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F31BAD-4420-43C5-ACD9-AEE51E1E5E10}">
+  <dimension ref="A1:X5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -587,21 +763,205 @@
         <v>22</v>
       </c>
     </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" t="s">
+        <v>41</v>
+      </c>
+      <c r="X5" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F040DFB-EF58-4811-8F23-96D87781F8F2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/MyFramework_1/TestData/TD/TD_GC.xlsx
+++ b/MyFramework_1/TestData/TD/TD_GC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\selBasic\TestData\TD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\Git_Buckt1\MyFramework_1\TestData\TD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72E78EF-20D7-40C0-AD7B-D8FAA078DD50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742F8106-7A97-4464-94B3-30A58EC7033B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
+    <workbookView xWindow="20" yWindow="620" windowWidth="19180" windowHeight="10180" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -573,19 +573,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213F3DC-B182-452E-AF46-9D4704FF2230}">
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -605,67 +605,64 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/MyFramework_1/TestData/TD/TD_GC.xlsx
+++ b/MyFramework_1/TestData/TD/TD_GC.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NagarajaK\eclipse-workspace\Git_Buckt1\MyFramework_1\TestData\TD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742F8106-7A97-4464-94B3-30A58EC7033B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF98540D-C998-4B56-BA0C-4B7BF5C1D2E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="620" windowWidth="19180" windowHeight="10180" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10180" xr2:uid="{1C261E98-DB72-41F7-8649-5E6C483EC4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1_bkp" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -104,66 +103,6 @@
   </si>
   <si>
     <t>File Name</t>
-  </si>
-  <si>
-    <t>11/04/2020</t>
-  </si>
-  <si>
-    <t>06391F</t>
-  </si>
-  <si>
-    <t>Nagaraja Kumarasamy</t>
-  </si>
-  <si>
-    <t>5035, Rambiling Hills Drive</t>
-  </si>
-  <si>
-    <t>Morisville, NC, 27560</t>
-  </si>
-  <si>
-    <t>nagaraja.kumarasamy@ibm.com</t>
-  </si>
-  <si>
-    <t>9842929902</t>
-  </si>
-  <si>
-    <t>Ananth</t>
-  </si>
-  <si>
-    <t>asethuraman@ibm.com</t>
-  </si>
-  <si>
-    <t>Apple Magic Key Board</t>
-  </si>
-  <si>
-    <t>Apple USB C Charger cable</t>
-  </si>
-  <si>
-    <t>Branch - Office Supplies Requisiton Template.xlsx</t>
-  </si>
-  <si>
-    <t>Prem</t>
-  </si>
-  <si>
-    <t>Branch - Office Supplies Requisiton Template1.xlsx</t>
-  </si>
-  <si>
-    <t>Asif Mohammed</t>
-  </si>
-  <si>
-    <t>Branch - Office Supplies Requisiton Template2.xlsx</t>
-  </si>
-  <si>
-    <t>Vino</t>
-  </si>
-  <si>
-    <t>Branch - Office Supplies Requisiton Template3.xlsx</t>
-  </si>
-  <si>
-    <t>11/05/2020 20:10:43</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>City</t>
@@ -216,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -239,25 +178,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -575,9 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213F3DC-B182-452E-AF46-9D4704FF2230}">
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -605,13 +530,13 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>15</v>
@@ -661,7 +586,7 @@
       <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -670,295 +595,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F31BAD-4420-43C5-ACD9-AEE51E1E5E10}">
-  <dimension ref="A1:X5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" t="s">
-        <v>41</v>
-      </c>
-      <c r="X4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V5" t="s">
-        <v>41</v>
-      </c>
-      <c r="X5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>